--- a/Ollama_model_comparison.xlsx
+++ b/Ollama_model_comparison.xlsx
@@ -4,15 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Questions" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Models" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Sheet5" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$30</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Models!$A$1:$B$10</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="216">
   <si>
     <t>Model name</t>
   </si>
@@ -144,6 +150,15 @@
     <t>https://ollama.com/library/tinyllama</t>
   </si>
   <si>
+    <t>8.6s</t>
+  </si>
+  <si>
+    <t>As a professional in the field of skin care, I would be happy to provide you with my expertise on using these specific products for different days and times. Here is my advice:  1. Days:  - For the first few days after cleansing and toning, use a gentle yet effective toner such as toneR or retinoL to help remove any excess oil or dirt from your skin. You can also add a serum containing an alpha-hydroxy acid (AHA) like salicylic acid to your routine for a deep cleanse that helps reduce impurities and hyperpigmentation.  2. Days:  - On day 2, use toner again but add a gentle exfoliating scrub such as alpha-hydroxy acid (AHA) or alpha-cellulose to help remove dull, dead skin cells that can lead to further breakouts. This will help reveal smoother and brighter skin for the next day's makeup application.  3. Days:  - On day 4, continue with your daily routine as usual, but also use a gentle yet effective serum containing vitamin C such as Retinol to further improve your skin's overall health. Vitamin C is known for its anti-aging benefits and can help reduce the appearance of fine lines and wrinkles, while also helping boost collagen production.  4. Days:  - On day 7, switch up your routine by using a gentle yet effective serum containing retinoL to help exfoliate and smooth out any rough patches on your skin caused by extra sun exposure. This will help minimize redness and inflammation while preventing further damage from UV rays.  5. Days:  - On day 14, use a gentle yet effective serum containing vitamin C to continue helping your skin's overall health and reduce the appearance of fine lines and wrinkles. This will help protect against future damage and minimize the look of aging on your face.  6. Days:  - On day 21, switch up your routine again by using a gentle yet effective serum containing salicylic acid to help remove any remaining dirt or impurities on your skin. This will also help prevent future breakouts as well as minimize the look of hyperpigmentation and dark spots.  7. Days:  - On day 28, switch back to your daily routine but use a gentle yet effective serum containing alpha-hydroxy acid (AHA) for a deep cleanse that helps remove any remaining impurities on your skin. This will help reveal smoother and brighter skin for the next day's makeup application.  remember to always do a patch test before using new products to ensure there are no irritations or allergies. Also, don't forget to exfoliate your skin twice a week to help prevent further damage from UV rays and other environmental factors.</t>
+  </si>
+  <si>
+    <t>As a skincare expert, I'd recommend using toneR, Hyalurol, Niacinamide, RetinoL, Vitamin C and Salicylic Acid products on days with specific needs. Here are some general days and times:  - Wednesday: ToneR contains retinoyl, which helps brighten and even skin tone. Use it before your makeup to reduce the look of fine lines and wrinkles.  - Thursday: Hyalurol, containing hydroquinone, is gentle on sensitive skin and is best used after a day of exposure to the sun. Apply it after receiving a tanning session or when exposed to extreme temperatures for an even smoother look.  - Saturday: Niacinamide, also known as acne busting ingredient, is perfect for those with oily skin and acne breakouts. It helps reduce oil production and brighten the skin tone. Use it before a day of shopping or dining out to help even out your skin's texture.  - Sunday: RetinoL is an effective treatment that helps minimize fine lines, wrinkles, and dark circles under the eyes. Apply it after cleansing your face for best results.  - Tuesday: Vitamin C is a powerful antioxidant that brightens, even outlines skin tone, and reduces the appearance of pores. Use it after getting sunburnt or wearing tight clothing to get the maximum benefits.  - Monday: Salicylic acid helps reduce the look of fine lines and wrinkles while also removing dead skin cells for a smoother and fresher complexion. Apply it after using toners, serums, or oils on your face to target specific areas effectively.  Remember to always use these products according to their instructions and avoid any overuse, especially if you have sensitive skin. Always consult with a dermatologist for the best advice about which products are right for your individual needs.</t>
+  </si>
+  <si>
     <t>Give me some information of kiwi fruit. Its Nutritional value, where is it most grown etc.</t>
   </si>
   <si>
@@ -196,6 +211,12 @@
 </t>
   </si>
   <si>
+    <t>Kiwis are popular among fruit enthusiasts around the world for their unique flavor and nutritional benefits. In this article, we will provide you with an overview of kiwis' nutritional value, their growing locations, as well as some interesting facts about them. Nutritional Value: Kiwis are known to be rich in several essential vitamins and minerals. They contain a high content of vitamin C (ascorbic acid), which aids in the immune system, skin health, and wound healing. In addition, they also contain calcium, phosphorus, fiber, and trace elements such as magnesium and potassium. Grown Grown: The best places to find kiwis are around the world's most popular fruit markets or online marketplaces like Amazon. You can easily search for local nurseries or farmers' markets in your area. When buying fresh kiwis, be sure to choose a ripe one since they often have the highest nutritional value. Growing Locations: Kiwis are native to New Zealand and were introduced there by European settlers during the 19th century. However, many people have started growing them throughout the world due to their attractive taste and health benefits. Where Is It Most Grown? Kiwis are native to New Zealand, where they were first discovered in 1830. However, it's important to note that while some species of kiwi may be found in other regions around the world, the most widely grown variety is from New Zealand and its surrounding islands. Additional Information: - Kiwis are part of the genus Acanthosicyon, which also includes apples, pears, and plums. - They have a long history as a local crop in New Zealand and throughout the Pacific region. - Due to their long growing seasons and tolerance for harsh conditions, kiwis can be grown almost anywhere in the world with proper care. In conclusion, kiwis are a versatile fruit that not only provide us with vitamin C but also offer many other health benefits. With their unique flavor and nutritional content, they are a favorite among food enthusiasts worldwide.</t>
+  </si>
+  <si>
+    <t>The kiwi (Acrida angustifolia) is a popular tropical fruit known for its unique green and white skin coloration. It has been cultivated in New Zealand since the 18th century by horticulturists from Europe. Nutritional value of kiwi: • Kiwi fruit provides high nutritional content, including: - Fiber: 3.4 g - Vitamin C: 29% RDI (Recommended Daily Intake) - Vitamin A: 50 mcg - Calcium: 28 mg - Magnesium: 156 mg - Potassium: 780 mg - Phosphorus: 39.4 mg • Rich in minerals and trace elements, such as potassium, magnesium, calcium, copper, phosphorus, and iron. The kiwi is a good source of vitamin C, which can help boost the immune system and support healthy skin. It's also high in fiber, making it an excellent choice for people looking to improve their digestive health. Growth and distribution: • The kiwi fruit was originally cultivated by New Zealanders as a food source due to its unique green and white skin coloration. It is now widely grown across New Zealand, where it's often considered a luxury fruit. • The kiwis can grow up to 20 feet high with a spread of about 10-15 feet. • In South Africa, the kiwi has been cultivated for thousands of years and is now an important part of local cuisine. In conclusion, Kiwis are rich in vitamins, minerals, and fiber. However, it's worth noting that while they're a good source of nutrition, they can also be high in natural sugars due to their green skin color. Proper consumption of kiwi fruits is generally considered safe with moderate amounts. If you want more information on the nutritional value or health benefits, I recommend consulting with a healthcare professional.</t>
+  </si>
+  <si>
     <t>can you summarize the text - Interest rates measure the time value of money, although risk differences in financial securities lead to differences in their equilibrium interest rates. Equilibrium interest rates are the required rate of return for a particular investment, in the sense that the market rate of return is the return that investors and savers require to get them to willingly lend their funds. 
    Interest rates are also referred to as discount rates and, in fact, the terms are often used interchangeably. If an individual can borrow funds at an interest rate of 10%, then that individual should discount payments to be made in the future at that rate to get their equivalent value in current dollars or other currencies. 
    Finally, we can also view interest rates as the opportunity cost of current consumption. If the market rate of interest on 1-year securities is 5%, earning an additional 5% is the opportunity forgone when current consumption is chosen rather than saving (postponing consumption).
@@ -216,6 +237,12 @@
 Interest rates represent the time value of money, with differences in financial security risks leading to variations in equilibrium interest rates. These rates reflect the required return investors need to lend funds. Interest rates, also called discount rates, help determine the present value of future payments. They also represent the opportunity cost of current consumption, as saving could yield returns.
 The real risk-free rate is a theoretical return on a loan with no inflation or default risk, reflecting time preference for current versus future consumption. The real rate of return measures purchasing power after adjusting for inflation. However, observed rates, such as U.S. Treasury bill rates, are nominal risk-free rates because they include an inflation premium. The relationship between nominal and real risk-free rates is approximated as:
 Nominal risk-free rate ≈ Real risk-free rate + Expected inflation rate.</t>
+  </si>
+  <si>
+    <t>In finance and economics, interest rates (also known as discount rates) measure the time value of money and determine the required rate of return for a particular investment. They are also referred to as discount rates and equivalent returns. Interest rates can be categorized into two types based on their expected outcomes:  1. Discount Rates: These are the interest rates that an individual would pay on borrowing funds from a lender at a given point in time. They represent the opportunity cost of current consumption and reflect the riskiness of the asset being borrowed. The real risk-free rate represents the lowest potential return on a single-period loan containing no expectation of default or inflation.  2. Equilibrium Interest Rates: These are the interest rates at which financial securities (such as bonds, notes, and Treasury bill) are valued in equilibrium. The equilibrium interest rate is the desired rate at which investors would accept an investment that yields a given expected rate of return with no risk or inflation.  Interest rates differ between different financial sectors, such as mortgage-backed securities (MBS) and Treasury bills. The real risk-free rate is the interest rate that would be charged by a lender on a single-period loan that contains no expectation of default or inflation, which represents the lowest possible return on an investment. However, expected inflation in future periods influences the rates we observe on U.S. Treasury bill (T-bills), for example, because they contain an inflation premium. Interest rate swaps are instruments used to hedge against the risk of changes in interest rates, which is a form of risk transfer or investment.</t>
+  </si>
+  <si>
+    <t>In economics, interest rates measure the time value of money and describe how much more attractive or risky a given investment is compared to earning a constant sum over a specified period. Interest rates can be thought of as the opportunity cost of current consumption, also known as the real risk-free rate of interest. Investors' desire for higher returns leads to higher interest rates and vice versa.  Interest rates are often referred to as "discount rates" or "discount factors," as they measure how much time it takes to discount future income, which represents the opportunity cost of current consumption. In other words, investors require a certain amount of time to earn their equivalent value in current dollars or foreign currencies, hence the term "discount."  Real risk-free rates refer to investors' increase in purchasing power (adjusted for inflation) after considering expected inflation rates. This is called the real rate of return because it takes into account that inflation has no impact on purchasing power. Real risk-free rates are essentially inflation-neutral rates, which means they reflect what investors need to earn in exchange for not expecting inflation in future periods.  Aspects such as expected inflation rates or duration of expected future cash flows can influence real risk-free rates. Interest rates on U.S. Treasury bill are risk-free because they contain an inflation premium, which means that they earn a nominal risk-free rate (1 + nominal risk-free rate) as well as an inflation premium of 0%, or risk-free interest over inflation (risk-free rate times nominal risk-free rate). Real risk-free rates on U.S. Treasury bills are not inflation-neutral, but they provide a baseline for calculating the real risk-free rate of interest on T-bills, which is a popular currency swap that uses the yield from an individual's T-bill as the spread to make the trade.  In summary, interest rates measure how much more attractive or risky an investment is compared to earning a constant sum over a specified period. The real risk-free rate of interest describes this perceived risk, taking into account expected inflation and duration of future cash flows. Investors require higher returns to discount future income, hence the term "discount." Real risk-free rates are typically lower than nominal risk-free rates because they represent the risk-free premium gained by investing in T-bills or other inflation-neutral assets over that of a constant sum earned from a nominal risk-free rate.</t>
   </si>
   <si>
     <t>gemma:2b</t>
@@ -1171,6 +1198,220 @@
     <t>&lt;think&gt; Okay, so I need to figure out if that code is wrong based on the given explanation. Let me break it down.  First, the original code uses `apply` with a lambda function. The lambda checks each value in the column. If it's null (NaN), it leaves it as NaN. Otherwise, it tries to convert it into a datetime using `pd.to_datetime(x)`. Wait, but sometimes when you call a function that might return a datetime object, especially if the input isn't expected to be datetime, there can be issues. For example, if someone passes a string or something else that doesn't make sense for a datetime.  But wait, in Python, `pd.to_datetime` handles NaNs gracefully by returning NaN when given null values. So maybe it's not problematic here. Also, the user mentioned using `isnull(x)`, which is consistent with pandas' approach. Using `isnull()` returns True only if x is NaN or null. If there are other types that aren't considered null in this context, they'll skip conversion.  Wait a minute, what if the column contains objects that can be converted to datetime? Like strings that represent times. The current code might fail because when you try to call `pd.to_datetime` on a string that isn't valid, it throws an error. But I think using `map()` instead of `apply` is better here because `map` will apply the lambda directly without the extra checks. So if any element fails conversion, `map` catches it.  Hmm, but the user's code does have some issues. Let me recap: The original code tries to convert non-null elements into datetime, which could fail if they're not strings that represent datetimes. Also, using `apply` may cause errors when calling functions on objects other than strings or None. Using `map()` instead would solve this because it applies the function in a safer way.  So overall, while the code is useful for non-null values, it's better to use `map()` and handle each value individually with a nested lambda. That way, any unexpected data types are caught before attempting conversion. &lt;/think&gt;  The provided code aims to convert non-null string elements into datetime objects by using `apply` and a lambda function that checks if the element is null (NaN) or not. However, there are some issues and potential improvements:  1. **Conversion Failure Risk**: If the strings cannot be converted into datetime objects without errors, this approach fails.  2. **Use of Apply vs. Map**: Using `apply` with a lambda may bypass safer operations when dealing with various data types that could cause exceptions when passed to `pd.to_datetime`.  3. **Alternative Approach (map)**: Replacing `apply` with `map()` is more appropriate, as it applies the function in a way that handles each value individually without prior checks.  In conclusion, while the code effectively converts valid datetime strings into objects, handling all potential data types and using safer operations would be better suited for this scenario.</t>
   </si>
   <si>
+    <t>Yes, the code is incorrect based on the explanation provided. Let's analyze why:
+Code:
+python
+Copy
+Edit
+df['column_name'] = df['column_name'].apply(lambda x: pd.to_datetime(x) if pd.isnull(x) else x)
+Expected Behavior (as per the explanation):
+If the value is NaN (pd.isnull(x) returns True), it should remain NaN.
+If the value is not NaN, it should be converted to a datetime object.
+Actual Behavior of the Code:
+The condition if pd.isnull(x) is checking if x is NaN.
+If x is NaN, it attempts to convert it to a datetime object, which contradicts the explanation that NaN should remain unchanged.
+If x is not NaN, it remains unchanged (i.e., no conversion happens at all).
+Corrected Code:
+To match the explanation, we should swap the condition:
+python
+Copy
+Edit
+df['column_name'] = df['column_name'].apply(lambda x: x if pd.isnull(x) else pd.to_datetime(x))
+Explanation of the Fix:
+If x is NaN, it remains NaN.
+If x is not NaN, it gets converted to a datetime object using pd.to_datetime(x).
+Let me know if you need further clarification!</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>The provided code is correct, but it can be simplified further by removing the explicit check for null values using `pd.isnull()`. Here's an updated version of the code that does the same thing: ```python df['column_name'] = df['column_name'].apply(lambda x: pd.to_datetime(x) if not pd.isna(x) else x) ``` This uses the built-in `pd.isna()` function to check for null values instead of `pd.isnull()`. The resulting code is more concise and easier to read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+No, the code is not wrong. The line `df['column_name'] = df['column_name'].apply(lambda x: pd.to_datetime(x) if pd.isnull(x) else x)` is correctly using the `apply` method to apply a function to each element in the column `column_name`.
+The function being applied is a lambda function that checks whether the value is already NaN using `pd.isnull(x)`. If it's not NaN, it converts the value to a datetime object using `pd.to_datetime(x)`. If it's already NaN, no conversion is applied and it remains NaN.
+The statement "if pd.isnull(x)" checks whether the value is already NaN before attempting to convert it to a datetime object. This is necessary because some values in the column may be NaN already, and we don't want to try to convert those to datetime objects.
+Overall, this code correctly handles both converting existing non-NaN values to datetime objects and leaving NaN values unchanged.</t>
+  </si>
+  <si>
+    <t>qwen2.5-coder</t>
+  </si>
+  <si>
+    <t>4.7GB</t>
+  </si>
+  <si>
+    <t>https://ollama.com/library/qwen2.5-coder</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>The code you provided aims to ensure that all values in the specified column are either NaN or datetime objects. However, there are a few considerations to note:  1. **Handling of NaN Values**: The `pd.to_datetime` function can handle NaN values gracefully, and it will return NaN if the input is already NaN. Therefore, checking for NaN before converting to datetime using `pd.isnull(x)` is not strictly necessary.  2. **Performance Consideration**: Using `apply` with a lambda function can be relatively slow for large DataFrames because each element is processed individually. It's generally more efficient to use vectorized operations provided by pandas.  Here’s a more optimized version of the code that avoids unnecessary checks and leverages vectorized operations:  ```python df['column_name'] = pd.to_datetime(df['column_name'], errors='coerce') ```  ### Explanation: - **`pd.to_datetime(df['column_name'], errors='coerce')`**:  - This function attempts to convert the column to datetime objects.  - If a value cannot be converted (e.g., because it's not in a recognized datetime format), it will be converted to NaN.  - The `errors='coerce'` argument ensures that any conversion errors result in NaN, which is what you want.  ### Example: ```python import pandas as pd  # Sample DataFrame data = {'column_name': ['2023-04-01', '2023-04-02', 'not a date']} df = pd.DataFrame(data)  # Efficient conversion using vectorized operations df['column_name'] = pd.to_datetime(df['column_name'], errors='coerce')  print(df) ```  ### Output: ```  column_name 0 2023-04-01 1 2023-04-02 2 NaT ```  In this example, the 'not a date' entry is correctly converted to NaN.  So, while your original code works, using vectorized operations with `pd.to_datetime` and setting `errors='coerce'` is generally more efficient and concise.</t>
+  </si>
+  <si>
+    <t>The statement provided in your question isn't entirely accurate. Here are some points to clarify:  1. **Handling of NaN Values**: The provided code uses `pd.isnull(x)` which checks if the value `x` is either NaN or None. It then tries to convert the value to a datetime object using `pd.to_datetime(x)`. If `x` is already a datetime object, this operation will work as expected.  2. **Datetime Conversion**: The conversion using `pd.to_datetime(x)` will not affect values that are already datetime objects since the function can handle such cases gracefully.  3. **Potential Issues with Data Types**: This code assumes that the original data in `column_name` is likely to be convertible to datetime (e.g., strings in date format). If the data contains non-date-like values, this could lead to errors during the conversion process.  4. **Performance Considerations**: Using `.apply()` can sometimes be slower for large datasets compared to vectorized operations provided by pandas. For larger datasets, it might be more efficient to use vectorized operations where possible.  To summarize, the code is not necessarily wrong, but it depends on the nature of your data. If you're sure that all values in `column_name` are convertible to datetime and performance is not a critical concern, this approach is reasonable.  If you have specific types of non-date-like values or if performance is important, consider using vectorized operations instead of `.apply()`. For example:  ```python df['column_name'] = pd.to_datetime(df['column_name'], errors='coerce') ```  This code attempts to convert all values in `column_name` to datetime and coerces any non-convertible values to NaN.</t>
+  </si>
+  <si>
+    <t>mistral</t>
+  </si>
+  <si>
+    <t>4.1GB</t>
+  </si>
+  <si>
+    <t>https://ollama.com/library/mistral</t>
+  </si>
+  <si>
+    <t>Getting an error in Git. error is "the following untracked working tree files would be overwritten by merge git error</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>This error occurs when you're trying to merge two branches and there are files in the working directory that are not being tracked by Git. The merge process will attempt to overwrite these untracked files, which Git prevents by default.  To resolve this issue, you have a few options:  1. **Commit or stash your changes:** Before merging, commit any changes in the working directory that you want to keep, or stash them if you're not ready to commit them yet.  ```bash git add . # Stages all changes for committing git commit -m "Your message here" ``` or  ```bash git stash save ```  2. **Ignore the untracked files:** If the untracked files are not important and you don't mind losing them during the merge, you can tell Git to ignore them with the `--ignore-untracked-data` option when merging:  ```bash git merge --ignore-untracked-data branch_name ```  3. **Rename or move the untracked files:** If possible, rename or move the untracked files temporarily, then repeat the merge command. After merging, you can put the files back to their original locations if needed.  4. **Force the merge:** You can force Git to overwrite the untracked files with the `--allow-unrelated-histories` option:  ```bash git merge --allow-unrelated-histories branch_name ```  However, be very careful when using this option because it may lead to unexpected results or conflicts in your project history.</t>
+  </si>
+  <si>
+    <t>This error occurs when you try to perform a merge in Git, but there are untracked files in your current working directory that will be overwritten by the changes from the branch or commit you're trying to merge. To resolve this issue, you can take the following steps:  1. First, make sure that the untracked files are not important and should be discarded, or if they are important, move them elsewhere temporarily.  2. Then, commit any changes in your working directory by running:  ``` git add . git commit -m "Your commit message" ```  3. Now that your working directory is clean, you can perform the merge:  ``` git merge &lt;branch-name&gt; ```  Replace `&lt;branch-name&gt;` with the name of the branch or commit you're trying to merge.  4. If the problem persists, it could be due to a file named .gitkeep in your untracked directory. Remove this file (or move it temporarily) before merging again:  ``` rm .gitkeep ```  After following these steps, you should be able to successfully perform the merge without encountering the "overwritten by merge" error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error message "the following untracked working tree files would be overwritten by merge" in Git occurs when you try to perform a Git operation (e.g., a merge, pull, or checkout) that would overwrite untracked files in your working directory. Untracked files are files present in your directory but not yet added to the Git index (i.e., they are not being tracked by Git).
+Why This Happens:
+Git prevents overwriting these files to avoid losing data. The operation you are attempting would replace or delete these untracked files, and Git is being cautious.
+How to Resolve:
+Review the Untracked Files: Run the following command to list the untracked files:
+bash
+Copy
+Edit
+git status
+Decide What to Do with the Untracked Files:
+If the files are important: Add them to Git before proceeding.
+bash
+Copy
+Edit
+git add &lt;file&gt;
+git commit -m "Add untracked file"
+If the files are not needed: Remove them from your working directory.
+bash
+Copy
+Edit
+rm &lt;file&gt;
+Force the Operation (If Applicable): If you are sure the untracked files can be discarded, you can use git clean to remove them.
+bash
+Copy
+Edit
+git clean -f
+To also remove untracked directories:
+bash
+Copy
+Edit
+git clean -fd
+Warning: This operation is irreversible. Double-check before running it.
+Merge or Pull Again: After addressing the untracked files, retry the operation:
+bash
+Copy
+Edit
+git merge &lt;branch&gt;
+Or:
+bash
+Copy
+Edit
+git pull
+Additional Tip:
+To avoid this issue in the future, regularly check for untracked files with git status and manage them (either add or remove) promptly.
+</t>
+  </si>
+  <si>
+    <t>18s</t>
+  </si>
+  <si>
+    <t>The infamous "untracked file would be overwritten" error!  Don't worry, I'm here to help you troubleshoot and resolve the issue.  **What does the error mean?**  When you run `git merge` or other Git commands that involve merging changes from one branch into another, Git needs to know about all files in your working tree (i.e., the current directory and its subdirectories). If there are untracked files in your working tree, Git will display an error message warning you that those files would be overwritten by the merge.  **Causes of this error**  There are several reasons why you might see this error:  1. **Uncommitted changes**: If you have made changes to files in your working tree but haven't committed them yet, Git won't know about those changes. 2. **Untracked files**: Files that aren't tracked by Git (i.e., not added to the index) will be ignored during a merge. 3. **Conflicting files**: If there are files with conflicting changes between the two branches being merged, Git may display an error message.  **How to resolve the error**  To resolve this error, follow these steps:  1. **Stop the merge operation**: Use `git merge --abort` or `git merge --stop` to cancel the merge and return to the previous state. 2. **Add untracked files to the index**: Run `git add &lt;file&gt;` for each untracked file you want to track, or use `git add .` to add all untracked files at once. 3. **Commit your changes**: Use `git commit -m "&lt;message&gt;"` to commit your changes before running `git merge`. 4. **Use `git merge --no-pend`**: If you're using Git 2.29 or later, you can use the `--no-pend` option with `git merge` to avoid displaying this error. 5. **Remove unneeded files**: If you don't need a file anymore, simply delete it.  **Example commands**  Here are some example commands to help you resolve the issue: ```bash # Stop the merge operation git merge --abort  # Add an untracked file to the index git add my_file.txt  # Commit your changes git commit -m "Added new file"  # Merge with a new branch using --no-pend git merge --no-pend origin/new-branch ``` By following these steps, you should be able to resolve the error and continue with your Git workflow.</t>
+  </si>
+  <si>
+    <t>The error you're encountering, "The following untracked working tree files would be overwritten by merge," indicates that there are changes in your working directory that are not being tracked by Git. When you try to merge changes from a commit or another branch into your current branch, Git cannot determine which version of the file is correct because it's not sure if the changes were made intentionally or unintentionally.  Here are steps to resolve this issue:  ### 1. Identify Untracked Files  First, identify the untracked files in your working directory using `git ls-files --error-unmatch` command:  ```bash git ls-files --error-unmatch ```  This will list all the files that Git is not aware of and are being overwritten.  ### 2. Add Ignored Files to .gitignore File  If you find any files in your working directory that were accidentally added or modified, remove them manually and move on. If these files are meant to be tracked but weren't correctly staged by `git add`, consider adding their paths to a `.gitignore` file.  For example, if you're keeping log backups from last week's work, consider ignoring them:  ```bash # .gitignore *.log ```  ### 3. Remove Unwanted Files  Delete any files that were found in the `git ls-files --error-unmatch` output and don't belong in your repository.  ### 4. Stage Changes Manually  If you're not sure about staging certain changes, make sure to stage them manually with `git add &lt;file_name&gt;`:  ```bash git add file.txt ```  Then, verify that the file is staged correctly by using `git status` command:  ```bash git status ```  ### 5. Commit Changes  Once you've identified and resolved any issues, commit your changes to ensure they're properly tracked in your repository.  ```bash git commit -m "Message for your change" ```  If you still encounter issues after these steps, consider reaching out to a Git expert or taking online tutorials on managing local changes with Git.</t>
+  </si>
+  <si>
+    <t>15.5s</t>
+  </si>
+  <si>
+    <t>&lt;think&gt; Okay, so I'm trying to figure out what's going wrong when I get this Git error: "The following untracked working tree files would be overwritten by a merge git error." Hmm, I remember that Git allows you to create new branches and add files to them without committing them first. But sometimes something goes wrong during the commit process, leading to these errors.  First off, let me break down what the error message is saying. It mentions "working tree files," which are files that Git considers part of your current branch but isn't tracked until you commit them. So if a file gets added without being tracked before merging, Git might overwrite it during a merge. That means when someone merges two branches, any untracked files from either could be overwritten.  I think the problem is probably related to how files are added or committed. Maybe I'm not committing everything correctly, especially non-root branches or other working tree files. Let me check the steps: I add some files, then commit them with "git checkout --no-branches." Then merge another branch into my main branch.  Wait a second, does adding and committing without tracking any working trees cause issues? I've heard that Git expects at least one non-root branch to be tracked when you do a merge. Otherwise, it's called an untracked working tree error.  So maybe I'm not committing all the necessary files. What if some important files from different branches aren't being committed before merging? That could lead to them being overwritten. Also, perhaps the order in which I add files and commit is causing conflicts or overwrites.  Another thought: sometimes Git might require specific permissions when adding files, especially with SSH. Maybe my credentials or network settings are preventing me from adding non-root branches. I should check if I'm using the correct SSH keys or configurations to access other branches.  I also wonder about the working tree file itself. Is it possible that my current working tree doesn't have any untracked files? If all files in my working tree were just added without commit commands, maybe it's not overwriting anything during a merge.  Maybe I should try committing specific files first and then see if adding others causes issues. Or perhaps there are some restrictions on how many files can be merged at once or about the structure of the current branch.  I've heard that when you have two branches, Git expects each to contribute certain files to avoid overwriting. So maybe I'm not providing all necessary files for both branches. Maybe I should check what's required for a successful merge.  Also, could this error be related to how branches are named or if they're being tracked incorrectly? If the branches aren't properly named, perhaps it affects Git's ability to track and merge them correctly.  I think I need to try committing specific files before merging. Let me see, when I add files, can I commit only a few at a time, or do I need to commit all of them in one go? Maybe the error is because some files aren't being tracked until they're committed.  Another possibility is that Git might be expecting certain permissions or attributes on the files when adding from SSH. If I'm not using the right keys, maybe it's causing issues. I should verify my SSH credentials and network settings to ensure I have the necessary permissions.  I also wonder if there are any specific commands or practices for adding working tree files before merging. Maybe I need to commit all untracked files at once after creating a new branch. But I'm not sure about that.  Perhaps I can test by committing only one file first and see if that works, then try adding others in the next commit. Or maybe there are some specific files or patterns that Git is looking for when determining whether it's overwriting files during a merge.  I should also look into any logs Git generates after the error occurs to get more details on what exactly is being overwritten. Maybe I can check the commit history just before the error happens and see if those commits contain untracked files.  Overall, I think the main issues are either not tracking enough working tree files or potential permissions restrictions when adding from SSH. To fix it, I'll need to commit specific non-root branches first, maybe commit all necessary files at once, and ensure proper authentication when adding non-root files. &lt;/think&gt;  The error message indicates that Git is encountering an untracked working tree file during a merge because some files were not properly committed or tracked before merging. Here's how you can resolve this:  1. **Commit Non-Root Branches First**: Start by committing specific, non-root branches to prevent overwriting issues.  2. **Check Working Tree File**: Ensure your current working tree (branch) does not contain any untracked files.  3. **SSH Addition of Working Tree Files**:  - Use `git add` with the `-a` flag if you're adding from SSH.  - Make sure to commit all necessary files at once, either multiple at a time or all after creating a new branch.  4. **Verify Permissions**: Ensure the working tree and branches have the required permissions when using SSH.  By following these steps, you should resolve the Git error related to untracked working tree files during merges.</t>
+  </si>
+  <si>
+    <t>&lt;think&gt; Okay, so I'm trying to figure out how to fix this Git error where there are some untracked working tree files being overwritten by a commit error. I remember that when you make a change in Git, especially large ones, it's important to check the log if something goes wrong. But here, the error is happening because of the working tree files.  Let me think about how Git handles version control. When someone commits changes, they want those changes to be tracked so others can see them. If you accidentally commit a file that wasn't intended for your branch or project, Git will merge in the old state into the new one. This means any worktree files from before could get overwritten.  So, what are untracked working tree files? Probably all files outside of your main branch, like parent directories or other branches. If they're being merged into your current commit, that's not good practice because it can break other people who might be trying to track them with Git again.  In the error message from Git, it says something about untracked working tree files being overwritten by a git error. That makes sense—so when you do a merge, any file that wasn't part of your main branch gets into your current commit and could cause issues if they were tracked for other projects or users.  How can I fix this? Well, Git itself doesn't support untracked working tree files as far back as the main codebase. To track worktree files, especially older ones from different branches, you need to add specific paths in your project's `git config` file.  I remember that in `git config`, there's a section for "Release dates". You can set that up so Git keeps track of older changes by including those release dates when checking out changes. Then, use the `--track-worktree-releases` option to tell Git to include them in the log.  Also, adding commit history isn't straightforward because commit objects don't store release information. But perhaps using a tool like `git diff --releases` can give you a clearer picture of which files were merged into your main branch.  After making these changes, you should run `git log -U main-branch` to check what was committed. This will show any untracked worktree files that are now in the log and help identify where to add commit history for those files.  I think I might have missed something about how Git handles merges across different branches. Maybe certain parts of your codebase weren't merged, but adding release dates should still cover most cases unless there's a specific branch you're tracking separately. But overall, setting up the `--track-worktree-releases` option is crucial.  So, putting it all together: set Git config to track worktree releases, add commit history for any files that need specific commits, and run the log command to see where the issue might be occurring. &lt;/think&gt;  To fix the Git error related to untracked working tree files being overwritten by a commit error, follow these steps:  1. **Set Git Config for Worktree Reclusions:**  ```bash  git config --track-worktree-releases  ```  This ensures that Git will track worktree files from different branches.  2. **Add Commit History for Worktree Files:**  - Use `git diff --releases` to see commit history in release format.  - Create a `.gitconfig` file and add specific commit details if needed, though direct commit history is tricky without branch information.  3. **Log Command to Verify:**  ```bash  git log -U main-branch  ```  This command lists changes across all working trees that were committed in your `main-branch`.  **Example Configuration File:**  ```gitconfig Release date:  main: 10/19/2023 08:00  Commit history for worktree files:  all: 10/19/2023 08:00  Branches to include in release diff (optional): ```  **Summary:** By enabling Git to track worktree releases and adding commit details, you ensure that any untracked files are properly tracked. Running the log command helps identify the source of the merge error.  ```bash git config --track-worktree-releases git log -U main-branch ```</t>
+  </si>
+  <si>
+    <t>MVC acchitecture or folder structure for AI application</t>
+  </si>
+  <si>
+    <t>57.4s</t>
+  </si>
+  <si>
+    <t>The Model-View-Controller (MVC) architecture is a software architectural pattern that separates the representation of information from the user's interaction with it. However, it's essential to note that applying traditional MVC to an Artificial Intelligence (AI) application might not be straightforward due to the unique nature and requirements of AI systems.  In an AI application, you would typically have the following components:  1. Model: This is where your AI algorithms, machine learning models, data structures, and business logic reside. In the context of MVC, this corresponds to the "Model" component.  2. View: The user interface (UI) that interacts with users or other systems. This can be a web page, mobile app screen, or even command-line interface, depending on your application's requirements. In the context of MVC, this corresponds to the "View" component.  3. Controller: This is where the interaction between the Model and View happens. It takes user actions from the View, updates the Model as necessary, and sends updated data back to the View. In an AI application, a Controller might handle things like fetching user input, processing that input through your AI model, and updating the UI with the results. However, due to the autonomy of AI systems, you may have more complex interaction patterns between the Model, View, and what could be called a "Director" or "Orchestrator," which coordinates the various components of your system.  4. AI Components: These can include machine learning models, neural networks, natural language processing libraries, etc., depending on the specific application requirements.  As for folder structure:  ``` AIProject/ ├── src/ │ ├── model/ │ ├── view/ │ ├── controller/ │ ├── ai_components/ │ └── utils/ ├── tests/ ├── config/ ├── package.json ```  In this structure, the `src` directory contains your project's core components:  - `model/`: Contains the machine learning models and business logic. - `view/`: Contains the user interface components. - `controller/`: Handles interaction between the Model and View, as well as AI components. - `ai_components/`: Contains libraries or modules for various AI-related tasks (e.g., machine learning models, natural language processing). - `utils/`: Miscellaneous utility functions that aren't specific to any other module.  The `tests/` directory contains unit tests and integration tests for your application, while the `config/` directory stores configuration files like environment variables or database connections.</t>
+  </si>
+  <si>
+    <t>The Model-View-Controller (MVC) architecture is a common pattern used in software development to separate the application's concerns and promote maintainability, reusability, and testability. However, applying it directly to an AI application might not be straightforward due to AI's unique requirements such as handling large datasets and complex computations.  For AI applications, especially those using machine learning (ML) models or deep learning (DL), the following is a suggested folder structure that incorporates some aspects of MVC:  1. **Data** - Stores all data related to the application. This can include dataset files, pre-processed datasets, and utility functions for loading and cleaning data.  2. **Features** - Contains modules that perform feature engineering tasks such as scaling, normalization, encoding categorical variables, and dimensionality reduction.  3. **Models** - The heart of the AI application. This folder contains machine learning (ML) or deep learning (DL) models along with their training scripts.  4. **Evaluation** - Contains functions for evaluating model performance using metrics such as accuracy, precision, recall, F1-score, etc. Also includes cross-validation and hyperparameter tuning scripts.  5. **Prediction** - This folder contains functions that make predictions on new data based on trained models.  6. **Inference** - Incorporates the integration of the trained model into an inference pipeline or deployment environment, such as a web service or mobile app.  7. **Visualization** - Contains functions and libraries for visualizing results, such as confusion matrices, learning curves, and other ML-specific plots.  8. **Utilities** - A collection of reusable utility functions to perform various tasks within the project, such as data preprocessing, model architecture creation, or helper functions for the different components mentioned above.  9. **Notebooks** - This folder stores Jupyter notebooks with explanations, experimentation, and analysis of the AI application.  10. **Requirements** - A file containing the list of required libraries and dependencies needed to run the project.</t>
+  </si>
+  <si>
+    <t>17.7s</t>
+  </si>
+  <si>
+    <t>&lt;think&gt; Okay, so I'm trying to set up an MVP (Minimum Viable Product) for my AI project. The user has given me a detailed folder structure and mentioned some things like ML models, data processing steps, etc., which makes sense. But now they want a more comprehensive plan. Let's see how I can approach this.  First, I need to think about the overall architecture of the system. They have set up an MVP with folders for data storage, model training, prediction, deployment, and logging. That’s good, but maybe it's too simplistic. Maybe I should consider adding more layers or integrating more components.  I know that in ML projects, starting with a basic architecture is crucial because anything built on top of that might not handle edge cases properly. So, perhaps I can expand the MVP to include more phases like data preprocessing, model evaluation, and deployment steps. That way, it's more robust and addresses potential issues early.  Let me break down what each phase should include. The initial set-up probably includes the necessary files and directories for everything, so that’s covered. Now, for data processing, I need to think about different data types like tabular, images, and text. Each type requires specific preprocessing steps. For example, handling missing values in numerical features is crucial before any model runs.  Model training needs a clear structure for the models we might use. Maybe I can create directories under each phase for specific algorithms or components of models. That way, if one part goes wrong, it's easier to fix without disrupting the entire project.  Inference steps are important too. We need to make sure that predictions are accurate and that there’s a way to test against actual data. Test sets are essential here to evaluate how well our model is performing. If we have some pre-trained models, maybe we can use them but ensure they’re properly evaluated.  Logging and monitoring will help track the performance of different models over time. We’ll need to record metrics like accuracy or loss and generate reports with graphs. That way, anyone else working on this project can review our progress without having to rerun everything from scratch.  Documentation is key for transparency. Whether it's through code comments, notes, or formal documentation, everyone needs to know how things are set up. This helps maintain clarity and allows future development.  Now, considering the deployment part, maybe we should have a separate infrastructure for serving predictions. This could be a server in production mode where models run and return results. It would also make it easier to handle scaling and resource allocation based on demand.  What about customer support? Implementing an API documentation or tutorials can help users get started without needing a full MVP. A knowledge base might be useful, but maybe starting with basic examples is more feasible for the scope of this project.  I should also think about dependencies and tools that we need to set up. This includes libraries like pandas for data handling, scikit-learn for models, TensorFlow or PyTorch for deep learning components, etc. Making sure all necessary packages are installed will keep the environment running smoothly during each phase.  Another thought is about version control. Using Git to track changes from start to finish ensures that everyone is on the same page. This helps with collaboration and future refactoring of code.  I wonder if we should consider data quality aspects beyond just preprocessing steps. Maybe things like imputation methods or feature engineering could be worth a separate section, but it might get too extensive quickly. Starting simple and expanding later seems manageable.  In terms of phases, perhaps after initial setup, I can add more phases like model evaluation, deployment, and monitoring. That way, we have a clear progression from setting up the basics to putting it all together in a professional way.  Wait, what about versioning? Each phase should have clear commit messages so that different people can understand their role. For example, one person can handle data preprocessing, another can train models, and yet another can deploy the system. This separation makes it easier for users to manage the project without relying on a single source of control.  Also, considering error handling is important. We should make sure our code can catch errors gracefully during each phase, from preprocessing to model training. If there's an issue in one part, we can fix it earlier and rollback changes, which is better than rebuilding everything.  I'm thinking about the MVPs beyond just the core features. Maybe we can include a basic version with limited functionality (like basic models) as the MVP. Then, later iterations could add more advanced features, making the MVP more robust over time.  Oh, and what about hyperparameter tuning? That's something that should be handled during model training or validation loops, so it gets integrated naturally into the process without needing additional setup.  Also, since we're dealing with AI, maybe considering hyperparameters for optimization is important. Grid search or random search could help in finding the best parameters early on, which might reduce costs and improve performance faster.  I should also think about scalability. If the project grows in size, how will it handle that? Maybe having a more scalable infrastructure would be beneficial, but again, we're starting small for an MVP, so perhaps focusing on core functionalities first is better.  Another aspect is data governance. Ensuring that data is properly handled and accessible by everyone involved from the beginning is crucial. Proper data cleaning and access controls can prevent issues later.  Lastly, considering the user experience, making sure that each phase builds on the previous one with clear responsibilities (like responsibility 1: data processing, responsibility 2: model training) helps in delivering a seamless product to end-users.  So, putting it all together, I think structuring it into phases like Data Processing, Model Training, Inference, Deployment, Monitoring, and Documentation makes sense. Each phase builds on the last, ensuring that each component is tested and refined before moving on. This approach not only streamlines the MVP but also gives a clear path for future enhancements. &lt;/think&gt;  To develop an MVP for your AI project, follow this structured plan:  ### Phase 1: Initial Setup - **Folder Structure**: Set up basic data storage (training, validation, test sets), model training folders, and inference folders. - **Data Handling**: Use Pandas for data manipulation, ensuring correct handling of numerical vs. categorical variables.  ### Phase 2: Data Processing (Preprocessing) - **Data Types**: Process data in tabular, image, and text formats using libraries like NumPy and OpenCV. - **Data Preprocessing**: Handle missing values, encode labels, normalize or standardize features as needed for models.  ### Phase 3: Model Training - **Model Structure**: Create directories for different models (e.g., linear regression, decision trees), ensuring clear organization. - **Training Loops**: Use scikit-learn or TensorFlow/PyTorch to train models on datasets from phase 2, with error handling integrated throughout.  ### Phase 4: Inference Steps - **Model Evaluation**: Train separate models and evaluate using test sets, monitoring metrics like accuracy and loss. - **Validation Checks**: Implement validation loops during training to prevent overfitting and ensure model performance.  ### Phase 5: Deployment (Production) - **Infrastructure**: Set up a production infrastructure for predictions, including scalability options based on demand. - **API Integration**: Deploy models with API documentation, tutorials, or examples.  ### Phase 6: Monitoring &amp; Logging - **Performance Tracking**: Log metrics and generate reports using tools like TensorBoard or GitLab. - **Reporting**: Create clear documentation to track progress, ensuring all phases are visible for users.  ### Phase 7: Documentation (Transparency) - **Version Control**: Track changes using Git for transparency and collaboration. - **Documentation**: Maintain detailed notes on each phase's responsibilities, with examples as a starting point.  ### Additional Considerations - **Dependencies**: Set up required libraries like Pandas, Scikit-learn, TensorFlow, or PyTorch. - **Versioning**: Use commit messages to track roles in different phases. - **Error Handling**: Implement robust error handling and version control for changes during each phase. - **Scalability**: Consider future infrastructure scalability as the product grows.  ### Phases Overview 1. **Data Processing** - Basic data cleaning and preprocessing steps. 2. **Model Training** - Building and training models on processed data. 3. **Inference Steps** - Implementing model predictions. 4. **Deployment** - Setting up production infrastructure. 5. **Monitoring &amp; Logging** - Tracking metrics and performance. 6. **Documentation** - Keeping clear documentation of the MVP structure.  This structured approach ensures each component is tested, refined, and integrated seamlessly, providing a robust MVP for your AI project.</t>
+  </si>
+  <si>
+    <t>&lt;think&gt; Okay, so I'm trying to figure out the best architecture and folder structure for an AI application using Model Predictive Control (MPC). I know MPC is typically used in control systems, like in chemical plants or manufacturing processes. But how does that translate into an AI setup?  First, I remember that model predictive control relies on a mathematical model of the system you're controlling. That makes sense because AI models are built on such mathematical frameworks. So maybe I need to structure my project similarly.  Let me think about the typical MPC steps. They usually involve creating a model (which could be a neural network or another machine learning model), defining constraints, setting up an optimization problem, and then implementing it in code with real-time updates. So for AI, perhaps each of these steps can use different models instead of traditional algorithms.  I think I should consider the layers required. The MPC controller usually has a series of stages: prediction, constraint, cost function, and policy or action variables. Each stage needs its own folder structure because they handle specific tasks. That makes sense for scalability and organization.  So the top-level folder would be something like "AI_MPC" containing all other folders. Let me break it down:  1. **Prediction Stage**: This is where we generate predictions using an AI model. Maybe I'll have a folder like "Predictions" with subfolders for different models or algorithms used in prediction, such as LSTMs for time series forecasting.  2. **Constraint Stage**: Constraints are important to ensure the system operates within safe limits. This could be separate from other AI components since it's more about safety and operational limits rather than optimization or cost functions.  3. **Cost Function Stage (Objective Function)**: Here, we define what we're trying to optimize, like minimizing control effort or maximizing profit. Different models can handle different aspects of this function, so each might have its own folder for their specific components.  4. **Policy/Action Variables**: These are the variables that AI learns to control the system. This section could be separate because it's where the AI model learns how to manipulate the system based on predictions and constraints.  I should also consider where to place the AI models themselves. Maybe I can have a "Model" folder containing all the AI models used throughout the MPC setup, like neural networks or support vector machines.  For the files within these folders, each needs specific names for clarity. For example, in the Predictions folder, I could name different predictions like "Time Series Forecast", "System Output", etc., to make it clear what each prediction represents.  Another consideration is how frequently the AI models are updated. If using online learning, maybe set up a periodic schedule to retrain the model with new data as it becomes available.  I also wonder about the integration between the MPC and AI components. How does the optimization problem get solved? Maybe use specific libraries or frameworks designed for MPC, but since I'm working on my own, I might need to implement the solver myself or use existing tools that support AI models.  Testing and validation will be crucial. I'll have to ensure that each stage works as expected before moving on to the next, maybe using cross-validation on a dataset from an actual system if possible.  In summary, structuring the project by layering the MPC into specific stages with appropriate folders makes sense. Each folder is dedicated to a task within the control loop— prediction, constraint handling, optimization, and action variables. This should make the implementation organized, scalable, and maintainable. &lt;/think&gt;  To create an AI-optimized Model Predictive Control (MPC) architecture, we can organize the project into distinct stages, each handled by specific folders for clarity and scalability. Below is a structured approach based on this idea:  ### AI_MPC Folder Structure  1. **AI_MPC**  - **Prediction Stage**  - `Predictions`: Subfolders include "Time Series Forecast", "System Output", etc., for different prediction algorithms.  2. **Constraint Stage**  - `Constraints`: Handles safety and operational limits, separate from other AI components.  3. **Cost Function Stage (Objective Function)**  - `CostFunction`: Contains optimization logic to minimize control effort or maximize profit based on AI models.  4. **Policy/Action Variables**  - `Actions`: Organizes variables learned by the AI model to control the system.  5. **Model Folder**  - `Model`: Stores all AI models used throughout the MPC setup, including neural networks and support vector machines.  ### Folders and Subfolders  - Each folder is dedicated to a specific task:  - Use descriptive names for clarity.  - Include multiple subfolders when necessary (e.g., time series forecasting within Predictions).  ### Implementation Considerations  - **Updates**: Implement online learning schedules if using real-time data. - **Integration**: Determine the use of existing libraries or frameworks that support AI models in MPC. - **Testing**: Validate each stage incrementally before full-scale deployment.  This layered approach ensures clarity, scalability, and maintainability.</t>
+  </si>
+  <si>
+    <t>30.8s</t>
+  </si>
+  <si>
+    <t>**MVC Architecture or Folder Structure for AI Applications**  When it comes to designing the architecture of an Artificial Intelligence (AI) application, the choice between a Model-View-Controller (MVC) approach and a custom folder structure depends on several factors, including the specific requirements of your project, team size, and personal preference.  **MVC Architecture:**  The MVC pattern is a widely used architectural design that separates an application into three interconnected components:  1. **Model**: Represents the data and business logic of the application. 2. **View**: Handles user interaction and displays the data to the user. 3. **Controller**: Acts as an intermediary between the Model and View, receiving input from the user and updating the Model accordingly.  **Pros:**  * Separates concerns and makes maintenance easier * Easy to implement and understand * Supports multiple programming languages  **Cons:**  * Can be over-engineered for smaller projects * May lead to tighter coupling between components  **Custom Folder Structure:**  A custom folder structure can provide a more tailored approach to organizing your AI application. Here are some common patterns:  1. **Project Layer**: Stores all the project-specific code, including data models, algorithms, and APIs. 2. **Domain Layer**: Holds the business logic and domain-specific classes, such as entity models, repositories, and services. 3. **Infrastructure Layer**: Includes utility libraries, frameworks, and tools used for building the application. 4. **API Layer**: Exposes the API endpoints and handles HTTP requests and responses.  **Pros:**  * Tailored to your specific project needs * Can be more flexible than MVC architecture  **Cons:**  * May require more planning and organization upfront * Can lead to a steeper learning curve for new team members  **Example Folder Structure:** ```bash ai-application/ ├── app/ │ ├── models/ │ │ ├── entity.py │ │ └── repository.py │ ├── services/ │ │ ├── algorithm_service.py │ │ └── data_service.py │ ├── views/ │ │ ├── index.html │ │ └── dashboard.html │ ├── controllers/ │ │ ├── index_controller.py │ │ └── dashboard_controller.py │ └── api/ │ ├── endpoints/ │ │ ├── index_endpoint.py │ │ └── dashboard_endpoint.py │ └── utils/ │ ├── request_handler.py │ └── response_handler.py ├── project/ │ ├── data/ │ │ ├── dataset.csv │ │ └── dataset.hdf5 │ ├── config/ │ │ ├── settings.json │ │ └── model_config.yml │ ├── utils/ │ │ ├── utility_functions.py │ │ └── algorithm_helpers.py │ ├── app.py │ └── main.py ├── infrastructure/ │ ├── frameworks/ │ │ ├── TensorFlow.frameworks │ │ └── PyTorch.frameworks │ ├── libraries/ │ │ ├── NumPy │ │ └── Pandas │ ├── tools/ │ │ ├── data_preprocessing.py │ │ └── model_training.py │ └── requirements.txt └── README.md ``` In conclusion, the choice between an MVC architecture and a custom folder structure depends on your specific project needs, team size, and personal preference. Both approaches have pros and cons, and it's essential to weigh these factors before making a decision.  **Recommendation:**  If you're working on a smaller AI application with a single developer or a small team, the MVC architecture might be a good starting point. However, if your project is more complex or has multiple developers, a custom folder structure tailored to your specific needs might be a better fit.  Remember, the key to a successful project is not just about choosing an architecture or folder structure but also about maintaining organization, readability, and scalability throughout your codebase.</t>
+  </si>
+  <si>
+    <t>The Model-View-Controller (MVC) architecture is a widely used design pattern in software development, and it can be applied to AI applications as well. Here's an overview of the MVC architecture and how it can be adapted to an AI application:  **MVC Architecture:**  1. **Model**: This layer represents the data and business logic of the application. It's responsible for managing the data and performing any necessary calculations or transformations. 2. **View**: This layer is responsible for rendering the user interface (UI) and displaying the data to the user. It can be a web page, mobile app screen, or even a command-line interface (CLI). 3. **Controller**: This layer acts as an intermediary between the Model and View. It receives input from the user, interacts with the Model to perform calculations or retrieve data, and then updates the View accordingly.  **Adapting MVC to AI Applications:**  For AI applications, you can adapt the MVC architecture as follows:  1. **Model**: This layer represents the neural network or machine learning model that performs the actual computations. It's responsible for processing input data, making predictions or decisions, and storing output data. 2. **View**: This layer is responsible for displaying the results of the Model's computations to the user. It can be a graphical interface (e.g., plotly), text-based output (e.g., console logging), or even a web service API. 3. **Controller**: This layer acts as an interface between the user and the Model. It receives input from the user, prepares the data for processing, interacts with the Model to perform computations, and then updates the View accordingly.  **Additional Layers:**  Some AI applications may require additional layers beyond the traditional MVC architecture:  1. **Preprocessor**: This layer is responsible for pre-processing input data, such as tokenization, feature extraction, or normalization. 2. **Postprocessor**: This layer is responsible for post-processing output data, such as converting results to a specific format or adding metadata.  **Example AI Application Folder Structure:**  Here's an example of how you could organize your AI application using the MVC architecture:  ```python ai_app/  models/ # Neural network or machine learning model  __init__.py  neural_network.py  dataset.py   views/ # Graphical interface, text-based output, or web service API  __init__.py  gui.py  cli.py  api.py   controllers/ # Interface between user and Model  __init__.py  input_processor.py  prediction_engine.py  output_formatter.py   preprocessors/ # Pre-processing input data  __init__.py  tokenizer.py  feature_extractor.py   postprocessors/ # Post-processing output data  __init__.py  result_converter.py  metadata_adder.py   requirements.txt # List of dependencies required for the application   main.py # Entry point for the application ```  This is just one possible way to organize an AI application using the MVC architecture. The actual folder structure will depend on the specific requirements and needs of your project.  **Benefits:**  Using the MVC architecture in AI applications can provide several benefits, including:  * **Separation of Concerns**: Each layer has a clear responsibility, making it easier to maintain and update the code. * **Reusability**: The Model layer can be reused across multiple applications or projects. * **Scalability**: The Controller layer can handle multiple inputs from different users or interfaces.  **Challenges:**  However, using the MVC architecture in AI applications also presents some challenges, such as:  * **Added Complexity**: Introducing additional layers beyond the traditional MVC architecture can add complexity to the codebase. * **Over-Engineering**: Over-engineering the Model or View layer can result in slower performance or increased memory usage.  Overall, the choice of using the MVC architecture in AI applications depends on the specific needs and requirements of your project. By carefully considering the benefits and challenges, you can determine whether this architecture is a good fit for your AI application.</t>
+  </si>
+  <si>
+    <t>write a sql query to find employees whose salary is greater than their manager</t>
+  </si>
+  <si>
+    <t>7.1s</t>
+  </si>
+  <si>
+    <t>To solve this problem, you need two tables: one for employees and another for managers (or supervisors). The employee table should have the following columns:  - id (primary key) - name - department - job_title - salary  The manager table should have the following columns:  - id (primary key) - employee_id (foreign key referencing the id column of the employee table) - manager_id (optional, if an employee does not have a manager)  Here's how you could write this query in SQL:  ```sql SELECT e.id, e.name, e.salary FROM employees e JOIN managers m ON e.id = m.employee_id WHERE e.salary &gt; m.salary; ```  This query joins the `employees` table with itself on the condition that both rows have an id. However, if there is no manager for a certain employee, then it will not be included in the result.  If you want to exclude employees without a manager (i.e., managers), you can use LEFT JOIN instead of INNER JOIN:  ```sql SELECT e.id, e.name, e.salary FROM employees e LEFT JOIN managers m ON e.id = m.employee_id WHERE e.salary &gt; m.salary; ```  In this case, if there is no match in the `managers` table (i.e., an employee does not have a manager), then that employee will still be included in the result.</t>
+  </si>
+  <si>
+    <t>Here's an SQL query that finds employees who have a higher salary than their manager:  ```sql SELECT e.* FROM Employees e JOIN Employee_Manuscript em ON e.EmployeeID = em.EmployeeID WHERE e.Salary &gt; em.Manager_Salary; ```  In this query, we join the `Employees` table (`e`) with the `Employee_Manuscript` table (`em`) on the employee ID. The `Manager_Salary` column is compared to the `Salary` of each employee. If an employee's salary is greater than their manager's salary, they are included in the result set.  Please note that the actual SQL query might be different based on your database schema and specific requirements.</t>
+  </si>
+  <si>
+    <t>27.6s</t>
+  </si>
+  <si>
+    <t>To solve this problem, we would need a table structure that includes the employee's salary and manager's details. Let's assume you have two tables: `employees` and `managers`.  1. The `employees` table contains columns `id`, `name`, `salary`, `manager_id` (Foreign key referencing `id` in the managers table). 2. The `managers` table contains columns `id` and `salary`.  Here is a SQL query that retrieves the employees whose salary is greater than their manager's salary:  ```sql SELECT e.* FROM employees AS e INNER JOIN managers AS m ON e.manager_id = m.id WHERE e.salary &gt; m.salary; ```  This query selects all employee records where the employee's id is in both the `employees` and `managers` tables (because each employee is also a manager for their subordinates) and their salary is greater than their own manager's salary.</t>
+  </si>
+  <si>
+    <t>To find employees whose salary is greater than their manager's salary, you would first need to assume that the manager's ID and salary information are stored in a table called `managers`, and the employee data (including their managers) are stored in a table named `employees`. Here is an example of how you could write this SQL query:  ```sql SELECT e.id, e.name, e.salary FROM employees AS e JOIN managers AS m ON e.manager_id = m.id WHERE e.salary &gt; m.salary; ```  This SQL query joins the `employees` and `managers` tables on the manager ID, so that we can access both the employee's salary and their manager's salary in the same query. The WHERE clause filters out only those employees whose salaries are greater than their managers'.</t>
+  </si>
+  <si>
+    <t>&lt;think&gt; Alright, so I need to write an SQL query to find employees whose salaries are greater than their managers. Let me think about how to approach this.  First, I should consider what the table structure might look like. I don't have the actual database schema, but typically, a company's employee information would include an ID, name, department or role (like manager), and salary. So, let's assume there are two tables: one for employees and another for managers.  The query needs to compare each employee's salary against their manager's salary. That means for every employee, I need to look up the corresponding manager's salary and check if the employee's salary is higher than that.  I'll start by selecting the employee's ID and name from the employees table because we probably don't need the manager's information explicitly unless needed. Then, for each employee, I'll join with the managers table on the employee_id to get their manager's details.  Once I have both pieces of information, I can use a CASE statement or an IF condition in SQL. Since salaries are numbers and we're comparing them using &gt;, an IF condition would be straightforward. So, if the employee's salary is greater than the manager's salary, we return true; otherwise, false.  I should make sure to handle cases where there might not be a corresponding manager for some employees, perhaps by excluding those entries or including placeholder values like NULL or NOalue. Also, I'll need to use a LIMIT statement after the query execution to return only the results that meet the condition.  Let me outline the steps:  1. Identify the tables involved: Employees and Managers. 2. Determine the columns needed: emp_id, name from employees; manager_id, manager_name from managers. 3. Use a SELECT statement to fetch emp_id, name, and an IF condition on salary against manager's salary. 4. Use a LEFT JOIN on the employees table with the managers table on employee_id to get managers' details. 5. Handle cases where there might be no corresponding manager by using NULL or NOalue in the CASE statement.  I should also consider the case when comparing salaries. In SQL, it's common to use &gt; instead of &gt;= if we don't know how the salaries are stored (maybe they have decimal places). So, it's safe to just use &gt; without any modification.  Now, putting this together into a query:  SELECT emp_id, name FROM employees LEFT JOIN managers ON employees.employee_id = managers.manager_id CASE WHEN e.salary &gt; m.salary THEN '是' ELSE '否' END AS 是否,  m.name AS 工资 FROM employees e LEFT JOIN managers m ON employees.employee_id = managers.manager_id;  Wait, actually, I should adjust the columns. The employee's name can be obtained from either table, but maybe it's better to include both to avoid any issues. However, since each employee has their own manager, using the LEFT JOIN ensures that for every employee, we get their manager.  Alternatively, perhaps I can do a subquery or use a common table expression (CTE), but in this case, a simple CASE statement within the SQL query should suffice.  Let me also consider if the salaries are stored as integers. If they're floats, then using &gt; is fine because it correctly reflects any decimal differences. So no special handling is needed beyond what's already there.  Testing the query: When I run this query on sample data where an employee's salary is higher than their manager's, it should return true. For employees without a corresponding manager (like managers themselves), they will have NULL for the manager's salary, so e.salary &gt; m.salary would be false unless NULL is treated as 0 or something else, but that might not be desired.  Alternatively, I could use m.is_manager ? NULL : m.salary in the CASE statement. But that complicates it a bit and may not be necessary if the data is properly structured with no employees who are their own managers.  I think using NULL for employees without a manager makes sense to avoid errors or unexpected results.  So, putting it all together, the query should correctly fetch each employee along with whether their salary is greater than theirs. If there are any issues or edge cases, I can adjust accordingly. &lt;/think&gt;  To find employees whose salaries are greater than their managers in SQL, you can use a SELECT statement to retrieve the necessary information and apply a CASE condition for comparison.  Here's the step-by-step explanation:  1. **Identify the tables**: You'll need two tables: `employees` (with employee ID, name) and `managers` (with manager ID, manager name).  2. **Use LEFT JOIN**: Perform a left join to ensure all employees are included, including those without managers.  3. **CASE Statement**: Use a CASE statement within the SQL query to compare each employee's salary against their manager's salary.  **SELECT Statement**: - `emp_id`: To fetch the employee ID. - `name`: To return the employee's name. - Include a CASE statement with IF conditions comparing salaries against managers' salaries, using '是' for true and '否' for false. Also include the manager's name in the output.  **FROM Statement**: - Use LEFT JOIN on the employees table to ensure all relevant data is included from both tables.  **Final Query**:  ```sql SELECT emp_id, CASE WHEN e.salary &gt; m.salary THEN '是' ELSE '否' END AS 是否,  m.name AS 工资 FROM employees e LEFT JOIN managers m ON e.manager_id = m.manager_id CASE WHEN e.salary &gt; m.salary THEN '是' ELSE '否' END; ```  **Limit the Results**: If you want only the results where the condition is true, add a LIMIT statement:  ```sql SELECT emp_id, CASE WHEN e.salary &gt; m.salary THEN '是' ELSE '否' END AS 是否,  m.name AS 工资 FROM employees e LEFT JOIN managers m ON e.manager_id = m.manager_id CASE WHEN e.salary &gt; m.salary THEN '是' ELSE '否' END; LIMIT 1; ```  This query efficiently finds all employees whose salaries exceed their direct reports (managers), handling cases where there might not be a corresponding manager by returning NULL or NOalue.</t>
+  </si>
+  <si>
+    <t>MVC architecture or folder structure for AI application</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>0.5b</t>
+  </si>
+  <si>
+    <t>1.5b</t>
+  </si>
+  <si>
+    <t>Gemma:2b</t>
+  </si>
+  <si>
     <t>And by best I mean</t>
   </si>
   <si>
@@ -1319,9 +1560,6 @@
   </si>
   <si>
     <t>Write a Sql query</t>
-  </si>
-  <si>
-    <t>MVC acchitecture or folder structure for AI application</t>
   </si>
   <si>
     <t>Choose the top models (as per multiple benchmarks and reviews) in each class</t>
@@ -1428,15 +1666,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1494,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1510,23 +1748,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1575,6 +1810,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1846,18 +2093,28 @@
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6">
+        <v>45782.0</v>
+      </c>
+      <c r="K2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1873,413 +2130,1031 @@
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10">
-        <v>45781.0</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6">
+        <v>45779.0</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45780.0</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10">
         <v>4.7</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="14">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15">
-        <v>45781.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="F6" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="10">
         <v>3.6</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="14">
         <v>45782.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F8" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10">
         <v>4.7</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="15">
-        <v>45782.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="J11" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="E12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="14">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="15">
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="14">
         <v>45779.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="15">
-        <v>45781.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="15">
-        <v>45778.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="14">
+        <v>45781.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="I15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="14">
+        <v>45778.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="15">
+      <c r="I16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="14">
         <v>45781.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11">
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="10">
         <v>1.5</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="14">
+        <v>45780.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="14">
+        <v>45778.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="15">
+      <c r="B20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="14">
+        <v>45778.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="14">
         <v>45780.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="14">
+        <v>45781.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="14">
+        <v>45780.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="10">
         <v>1.5</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="15">
-        <v>45778.0</v>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="14">
+        <v>45780.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="14">
+        <v>45779.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="14">
+        <v>45780.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="14">
+        <v>45781.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="14">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="14">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="14">
+        <v>45782.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$J$30"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D8"/>
-    <hyperlink r:id="rId7" ref="D9"/>
-    <hyperlink r:id="rId8" ref="D10"/>
-    <hyperlink r:id="rId9" ref="D11"/>
-    <hyperlink r:id="rId10" ref="D12"/>
-    <hyperlink r:id="rId11" ref="D13"/>
-    <hyperlink r:id="rId12" ref="D14"/>
-    <hyperlink r:id="rId13" ref="D15"/>
-    <hyperlink r:id="rId14" ref="D16"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D10"/>
+    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink r:id="rId12" ref="D13"/>
+    <hyperlink r:id="rId13" ref="D14"/>
+    <hyperlink r:id="rId14" ref="D15"/>
+    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId21" ref="D22"/>
+    <hyperlink r:id="rId22" ref="D23"/>
+    <hyperlink r:id="rId23" ref="D24"/>
+    <hyperlink r:id="rId24" ref="D25"/>
+    <hyperlink r:id="rId25" ref="D26"/>
+    <hyperlink r:id="rId26" ref="D27"/>
+    <hyperlink r:id="rId27" ref="D28"/>
+    <hyperlink r:id="rId28" ref="D29"/>
+    <hyperlink r:id="rId29" ref="D30"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$B$10">
+    <sortState ref="A1:B10">
+      <sortCondition ref="B1:B10"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2293,516 +3168,516 @@
   </cols>
   <sheetData>
     <row r="7">
-      <c r="C7" s="20" t="s">
-        <v>86</v>
+      <c r="C7" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9">
-      <c r="C9" s="20" t="s">
-        <v>87</v>
+      <c r="C9" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11">
-      <c r="C11" s="20" t="s">
-        <v>88</v>
+      <c r="C11" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="20" t="s">
-        <v>89</v>
+      <c r="C12" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14">
-      <c r="C14" s="20" t="s">
-        <v>90</v>
+      <c r="C14" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="20" t="s">
-        <v>91</v>
+      <c r="C15" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="20" t="s">
-        <v>92</v>
+      <c r="C16" s="19" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="21"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18">
-      <c r="C18" s="20" t="s">
-        <v>93</v>
+      <c r="C18" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="20" t="s">
-        <v>94</v>
+      <c r="C19" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21">
-      <c r="C21" s="20" t="s">
-        <v>95</v>
+      <c r="C21" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="20" t="s">
-        <v>96</v>
+      <c r="C22" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="20" t="s">
-        <v>97</v>
+      <c r="C23" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="20" t="s">
-        <v>98</v>
+      <c r="C24" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" s="22" t="s">
-        <v>99</v>
+      <c r="C25" s="21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="20" t="s">
-        <v>100</v>
+      <c r="C26" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28">
-      <c r="C28" s="20" t="s">
-        <v>101</v>
+      <c r="C28" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30">
-      <c r="C30" s="20" t="s">
-        <v>102</v>
+      <c r="C30" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32">
-      <c r="C32" s="20" t="s">
-        <v>103</v>
+      <c r="C32" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" s="20" t="s">
-        <v>104</v>
+      <c r="C33" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" s="20" t="s">
-        <v>105</v>
+      <c r="C34" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" s="20" t="s">
-        <v>106</v>
+      <c r="C35" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>108</v>
+      <c r="C36" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" s="20" t="s">
-        <v>24</v>
+      <c r="C37" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="20" t="s">
-        <v>109</v>
+      <c r="C38" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="21"/>
-      <c r="E39" s="11" t="s">
-        <v>110</v>
+      <c r="C39" s="20"/>
+      <c r="E39" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="20" t="s">
-        <v>111</v>
+      <c r="C40" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>113</v>
+      <c r="C41" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" s="21"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43">
-      <c r="C43" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>115</v>
+      <c r="C43" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" s="21"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45">
-      <c r="C45" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="C45" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="20"/>
+      <c r="E56" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="21"/>
-      <c r="E56" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="21"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="21"/>
-    </row>
-    <row r="64">
-      <c r="C64" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="21"/>
-    </row>
-    <row r="66">
-      <c r="C66" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="21"/>
-    </row>
-    <row r="68">
-      <c r="C68" s="21"/>
-    </row>
-    <row r="69">
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70">
-      <c r="C70" s="21"/>
-    </row>
-    <row r="71">
-      <c r="C71" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="72">
-      <c r="C72" s="21"/>
+      <c r="C72" s="20"/>
     </row>
     <row r="73">
-      <c r="C73" s="20" t="s">
-        <v>137</v>
+      <c r="C73" s="19" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="74">
-      <c r="C74" s="21"/>
+      <c r="C74" s="20"/>
     </row>
     <row r="75">
-      <c r="C75" s="21"/>
+      <c r="C75" s="20"/>
     </row>
     <row r="76">
-      <c r="C76" s="20" t="s">
-        <v>138</v>
+      <c r="C76" s="19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77">
-      <c r="C77" s="20" t="s">
-        <v>139</v>
+      <c r="C77" s="19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="C78" s="21"/>
+      <c r="C78" s="20"/>
     </row>
     <row r="79">
-      <c r="C79" s="21"/>
+      <c r="C79" s="20"/>
     </row>
     <row r="80">
-      <c r="C80" s="20" t="s">
-        <v>140</v>
+      <c r="C80" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81">
-      <c r="C81" s="21"/>
+      <c r="C81" s="20"/>
     </row>
     <row r="82">
-      <c r="C82" s="20" t="s">
-        <v>141</v>
+      <c r="C82" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="83">
-      <c r="C83" s="20" t="s">
-        <v>142</v>
+      <c r="C83" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="84">
-      <c r="C84" s="20" t="s">
-        <v>143</v>
+      <c r="C84" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="85">
-      <c r="C85" s="21"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86">
-      <c r="C86" s="20" t="s">
-        <v>144</v>
+      <c r="C86" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="87">
-      <c r="C87" s="21"/>
+      <c r="C87" s="20"/>
     </row>
     <row r="88">
-      <c r="C88" s="20" t="s">
-        <v>145</v>
+      <c r="C88" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="89">
-      <c r="C89" s="21"/>
+      <c r="C89" s="20"/>
     </row>
     <row r="90">
-      <c r="C90" s="21"/>
+      <c r="C90" s="20"/>
     </row>
     <row r="91">
-      <c r="C91" s="20" t="s">
-        <v>146</v>
+      <c r="C91" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="C92" s="21"/>
+      <c r="C92" s="20"/>
     </row>
     <row r="93">
-      <c r="C93" s="20" t="s">
-        <v>147</v>
+      <c r="C93" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94">
-      <c r="C94" s="21"/>
+      <c r="C94" s="20"/>
     </row>
     <row r="95">
-      <c r="C95" s="21"/>
+      <c r="C95" s="20"/>
     </row>
     <row r="96">
-      <c r="C96" s="20" t="s">
-        <v>148</v>
+      <c r="C96" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="C97" s="21"/>
+      <c r="C97" s="20"/>
     </row>
     <row r="98">
-      <c r="C98" s="21"/>
+      <c r="C98" s="20"/>
     </row>
     <row r="99">
-      <c r="C99" s="20" t="s">
-        <v>149</v>
+      <c r="C99" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="C100" s="21"/>
+      <c r="C100" s="20"/>
     </row>
     <row r="101">
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="C102" s="20" t="s">
-        <v>150</v>
+      <c r="C102" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="C103" s="20" t="s">
-        <v>151</v>
+      <c r="C103" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="C104" s="20" t="s">
-        <v>152</v>
+      <c r="C104" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="105">
-      <c r="C105" s="20" t="s">
-        <v>153</v>
+      <c r="C105" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="C106" s="20">
+      <c r="C106" s="19">
         <v>1.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="C107" s="20" t="s">
-        <v>154</v>
+      <c r="C107" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="108">
-      <c r="C108" s="20" t="s">
-        <v>154</v>
+      <c r="C108" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="109">
-      <c r="C109" s="20">
+      <c r="C109" s="19">
         <v>10.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="C110" s="20" t="s">
-        <v>155</v>
+      <c r="C110" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="111">
-      <c r="C111" s="20" t="s">
-        <v>156</v>
+      <c r="C111" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="112">
-      <c r="C112" s="21"/>
+      <c r="C112" s="20"/>
     </row>
     <row r="113">
-      <c r="C113" s="20" t="s">
-        <v>157</v>
+      <c r="C113" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="114">
-      <c r="C114" s="21"/>
+      <c r="C114" s="20"/>
     </row>
     <row r="115">
-      <c r="C115" s="20" t="s">
-        <v>158</v>
+      <c r="C115" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="116">
-      <c r="C116" s="21"/>
+      <c r="C116" s="20"/>
     </row>
     <row r="117">
-      <c r="C117" s="20" t="s">
-        <v>159</v>
+      <c r="C117" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="118">
-      <c r="C118" s="20" t="s">
-        <v>160</v>
+      <c r="C118" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="119">
-      <c r="C119" s="20" t="s">
-        <v>161</v>
+      <c r="C119" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
